--- a/src/main/resources/excel/1 Questions words.xlsx
+++ b/src/main/resources/excel/1 Questions words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 What" sheetId="1" state="visible" r:id="rId3"/>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">hu ʃʊd aɪ tɔk tu əˈbaʊt ðɪs?</t>
   </si>
   <si>
-    <t xml:space="preserve">I don't know who she is.</t>
+    <t xml:space="preserve">I don't know who she is</t>
   </si>
   <si>
     <t xml:space="preserve">No sé quién es ella.</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">huz ðæt ɡaɪ ˈoʊvər ðɛr?</t>
   </si>
   <si>
-    <t xml:space="preserve">I'm not sure who's going to win.</t>
+    <t xml:space="preserve">I'm not sure who's going to win</t>
   </si>
   <si>
     <t xml:space="preserve">No estoy seguro de quién va a ganar.</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">huz ˈɡoʊɪŋ tu ðə ˈkɑnsɜrt wɪð ju?</t>
   </si>
   <si>
-    <t xml:space="preserve">I wonder who she's talking to.</t>
+    <t xml:space="preserve">I wonder who she's talking to</t>
   </si>
   <si>
     <t xml:space="preserve">Me pregunto a quién le está hablando.</t>
@@ -661,13 +661,13 @@
     <t xml:space="preserve">hi æskt mi wɪʧ kɑr wʌz maɪn</t>
   </si>
   <si>
-    <t xml:space="preserve">You can choose any flavor you like, but I recommend the chocolate, which is delicious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puedes elegir cualquier sabor que te guste, pero te recomiendo el chocolate, que está delicioso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ju kæn ʧuz ˈɛni ˈfleɪvər ju laɪk, bʌt aɪ ˌrɛkəˈmɛnd ðə ˈʧɔklət, wɪʧ ɪz dɪˈlɪʃəs</t>
+    <t xml:space="preserve">but I recommend the chocolate, which is delicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pero te recomiendo el chocolate, que está delicioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bʌt aɪ ˌrɛkəˈmɛnd ðə ˈʧɔklət, wɪʧ ɪz dɪˈlɪʃəs</t>
   </si>
   <si>
     <t xml:space="preserve">She had to decide which university to attend</t>
@@ -688,13 +688,13 @@
     <t xml:space="preserve">ðə ˈpækəʤ kənˈteɪnz θri ɡɪfts, wʌn ʌv wɪʧ ɪz fɔr ju</t>
   </si>
   <si>
-    <t xml:space="preserve">We have several options available, including the red one, which is quite popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenemos varias opciones disponibles, incluyendo la roja, que es bastante popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wi hæv ˈsɛvrəl ˈɑpʃənz əˈveɪləbəl, ɪnˈkludɪŋ ðə rɛd wʌn, wɪʧ ɪz kwaɪt ˈpɑpjələr</t>
+    <t xml:space="preserve">including the red one, which is quite popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incluyendo la roja, que es bastante popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪnˈkludɪŋ ðə rɛd wʌn, wɪʧ ɪz kwaɪt ˈpɑpjələr</t>
   </si>
   <si>
     <t xml:space="preserve">Which day works best for you to schedule the meeting?</t>
@@ -1786,7 +1786,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1794,7 +1794,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="55.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +1804,7 @@
       <c r="B1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       <c r="B2" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="B3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="B4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="B5" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       <c r="B6" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>422</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="B7" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="B8" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>428</v>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="B9" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>431</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       <c r="B10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="B11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>437</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       <c r="B12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>440</v>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="B13" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       <c r="B14" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="B15" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>449</v>
       </c>
     </row>
@@ -1981,14 +1981,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="70.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="70.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +1998,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,15 +2564,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="66.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="68.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="68.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2582,7 @@
       <c r="B1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       <c r="B2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       <c r="B3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2615,18 +2615,18 @@
       <c r="B4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       <c r="B6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2648,18 +2648,18 @@
       <c r="B7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="B9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2681,18 +2681,18 @@
       <c r="B10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="B12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2714,18 +2714,18 @@
       <c r="B13" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       <c r="B15" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2776,7 @@
       <c r="B1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       <c r="B2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
       <c r="B3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       <c r="B4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       <c r="B5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       <c r="B6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       <c r="B7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       <c r="B8" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       <c r="B9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       <c r="B10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       <c r="B11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       <c r="B12" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       <c r="B13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       <c r="B14" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       <c r="B15" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,7 +2970,7 @@
       <c r="B1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       <c r="B2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       <c r="B3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       <c r="B4" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       <c r="B5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="B6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       <c r="B7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       <c r="B8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="B9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       <c r="B10" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
       <c r="B11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       <c r="B12" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       <c r="B13" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="B14" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       <c r="B15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3164,7 @@
       <c r="B1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       <c r="B2" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       <c r="B3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="B4" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       <c r="B6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       <c r="B7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="B8" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       <c r="B9" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       <c r="B10" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       <c r="B11" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       <c r="B12" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       <c r="B13" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="B14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="B15" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="82.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="82.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3358,7 @@
       <c r="B1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       <c r="B2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       <c r="B3" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="B4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       <c r="B5" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       <c r="B6" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       <c r="B7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       <c r="B8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       <c r="B9" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       <c r="B10" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       <c r="B11" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="B12" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       <c r="B13" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>398</v>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       <c r="B14" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       <c r="B15" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>404</v>
       </c>
     </row>

--- a/src/main/resources/excel/1 Questions words.xlsx
+++ b/src/main/resources/excel/1 Questions words.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="953">
   <si>
     <t xml:space="preserve">What</t>
   </si>
@@ -34,18 +34,18 @@
     <t xml:space="preserve">wɑt</t>
   </si>
   <si>
+    <t xml:space="preserve">What are you doing later?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué estás haciendo después?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt ɑr ju ˈduɪŋ ˈleɪtər?</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
-    <t xml:space="preserve">What are you doing later?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Qué estás haciendo después?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wɑt ɑr ju ˈduɪŋ ˈleɪtər?</t>
-  </si>
-  <si>
     <t xml:space="preserve">What did you say?</t>
   </si>
   <si>
@@ -610,23 +610,7 @@
     <t xml:space="preserve">De donde</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">frʌm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">wɛr</t>
-    </r>
+    <t xml:space="preserve">frʌm wɛr</t>
   </si>
   <si>
     <t xml:space="preserve">Where did you come from?</t>
@@ -2907,7 +2891,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2928,11 +2912,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2977,7 +2956,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2986,20 +2965,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3127,8 +3098,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F96" activeCellId="1" sqref="F1:F63 F96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F98" activeCellId="0" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3149,22 +3120,20 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,8 +3146,8 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,8 +3160,8 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,8 +3174,8 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,8 +3188,8 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,8 +3202,8 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,8 +3216,8 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,8 +3230,8 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,8 +3244,8 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,8 +3258,8 @@
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,8 +3272,8 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,8 +3286,8 @@
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,8 +3300,8 @@
       <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,8 +3314,8 @@
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,8 +3328,8 @@
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,9 +3342,7 @@
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -3387,8 +3354,8 @@
       <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,8 +3368,8 @@
       <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>3</v>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,8 +3382,8 @@
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,8 +3396,8 @@
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,8 +3410,8 @@
       <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,8 +3424,8 @@
       <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,8 +3438,8 @@
       <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,8 +3452,8 @@
       <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>3</v>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,8 +3466,8 @@
       <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,8 +3480,8 @@
       <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,8 +3494,8 @@
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,8 +3508,8 @@
       <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,8 +3522,8 @@
       <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>3</v>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,8 +3536,8 @@
       <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>3</v>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,8 +3550,8 @@
       <c r="D32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,9 +3564,7 @@
       <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -3611,8 +3576,8 @@
       <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,8 +3590,8 @@
       <c r="D35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,8 +3604,8 @@
       <c r="D36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,8 +3618,8 @@
       <c r="D37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>3</v>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,8 +3632,8 @@
       <c r="D38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>3</v>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,8 +3646,8 @@
       <c r="D39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>3</v>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,8 +3660,8 @@
       <c r="D40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>3</v>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,8 +3674,8 @@
       <c r="D41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,8 +3688,8 @@
       <c r="D42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,8 +3702,8 @@
       <c r="D43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,8 +3716,8 @@
       <c r="D44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,8 +3730,8 @@
       <c r="D45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,8 +3744,8 @@
       <c r="D46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,8 +3758,8 @@
       <c r="D47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,8 +3772,8 @@
       <c r="D48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,9 +3786,7 @@
       <c r="D49" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
@@ -3835,8 +3798,8 @@
       <c r="D50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>3</v>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,8 +3812,8 @@
       <c r="D51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>3</v>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,8 +3826,8 @@
       <c r="D52" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,8 +3840,8 @@
       <c r="D53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>3</v>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,8 +3854,8 @@
       <c r="D54" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,8 +3868,8 @@
       <c r="D55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>3</v>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,8 +3882,8 @@
       <c r="D56" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>3</v>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,8 +3896,8 @@
       <c r="D57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,8 +3910,8 @@
       <c r="D58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,8 +3924,8 @@
       <c r="D59" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,8 +3938,8 @@
       <c r="D60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,8 +3952,8 @@
       <c r="D61" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>3</v>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,8 +3966,8 @@
       <c r="D62" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,8 +3980,8 @@
       <c r="D63" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>3</v>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,8 +3994,8 @@
       <c r="D64" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>3</v>
+      <c r="F64" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,9 +4008,7 @@
       <c r="D65" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
@@ -4059,8 +4020,8 @@
       <c r="D66" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,8 +4034,8 @@
       <c r="D67" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>3</v>
+      <c r="F67" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,8 +4048,8 @@
       <c r="D68" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>3</v>
+      <c r="F68" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,8 +4062,8 @@
       <c r="D69" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>3</v>
+      <c r="F69" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,8 +4076,8 @@
       <c r="D70" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
+      <c r="F70" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,8 +4090,8 @@
       <c r="D71" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>3</v>
+      <c r="F71" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,8 +4104,8 @@
       <c r="D72" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,8 +4118,8 @@
       <c r="D73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>3</v>
+      <c r="F73" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,8 +4132,8 @@
       <c r="D74" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>3</v>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,8 +4146,8 @@
       <c r="D75" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>3</v>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,8 +4160,8 @@
       <c r="D76" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+      <c r="F76" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,8 +4174,8 @@
       <c r="D77" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>3</v>
+      <c r="F77" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,8 +4188,8 @@
       <c r="D78" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>3</v>
+      <c r="F78" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,8 +4202,8 @@
       <c r="D79" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>3</v>
+      <c r="F79" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,8 +4216,8 @@
       <c r="D80" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>3</v>
+      <c r="F80" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,9 +4230,7 @@
       <c r="D81" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
@@ -4283,8 +4242,8 @@
       <c r="D82" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>3</v>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,8 +4256,8 @@
       <c r="D83" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,8 +4270,8 @@
       <c r="D84" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>3</v>
+      <c r="F84" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,8 +4284,8 @@
       <c r="D85" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>3</v>
+      <c r="F85" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,8 +4298,8 @@
       <c r="D86" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>3</v>
+      <c r="F86" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,8 +4312,8 @@
       <c r="D87" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>3</v>
+      <c r="F87" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,8 +4326,8 @@
       <c r="D88" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>3</v>
+      <c r="F88" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,8 +4340,8 @@
       <c r="D89" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,8 +4354,8 @@
       <c r="D90" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>3</v>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,8 +4368,8 @@
       <c r="D91" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,8 +4382,8 @@
       <c r="D92" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>3</v>
+      <c r="F92" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,8 +4396,8 @@
       <c r="D93" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>3</v>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,8 +4410,8 @@
       <c r="D94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,8 +4424,8 @@
       <c r="D95" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>3</v>
+      <c r="F95" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,8 +4438,8 @@
       <c r="D96" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>3</v>
+      <c r="F96" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4501,8 +4460,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F95" activeCellId="1" sqref="F1:F63 F95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F98" activeCellId="0" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4523,9 +4482,7 @@
       <c r="D1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -4537,8 +4494,8 @@
       <c r="D2" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,8 +4508,8 @@
       <c r="D3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,8 +4522,8 @@
       <c r="D4" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,8 +4536,8 @@
       <c r="D5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,8 +4550,8 @@
       <c r="D6" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,8 +4564,8 @@
       <c r="D7" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,8 +4578,8 @@
       <c r="D8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,8 +4592,8 @@
       <c r="D9" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,8 +4606,8 @@
       <c r="D10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,8 +4620,8 @@
       <c r="D11" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,8 +4634,8 @@
       <c r="D12" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,8 +4648,8 @@
       <c r="D13" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,8 +4662,8 @@
       <c r="D14" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4719,8 +4676,8 @@
       <c r="D15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,9 +4690,7 @@
       <c r="D16" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -4747,8 +4702,8 @@
       <c r="D17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,8 +4716,8 @@
       <c r="D18" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4775,8 +4730,8 @@
       <c r="D19" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>3</v>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,8 +4744,8 @@
       <c r="D20" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,8 +4758,8 @@
       <c r="D21" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,8 +4772,8 @@
       <c r="D22" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,8 +4786,8 @@
       <c r="D23" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,8 +4800,8 @@
       <c r="D24" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,8 +4814,8 @@
       <c r="D25" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>3</v>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,8 +4828,8 @@
       <c r="D26" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,8 +4842,8 @@
       <c r="D27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,8 +4856,8 @@
       <c r="D28" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,8 +4870,8 @@
       <c r="D29" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,8 +4884,8 @@
       <c r="D30" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>3</v>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,8 +4898,8 @@
       <c r="D31" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>3</v>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,9 +4912,7 @@
       <c r="D32" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -4971,8 +4924,8 @@
       <c r="D33" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,8 +4938,8 @@
       <c r="D34" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,8 +4952,8 @@
       <c r="D35" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,8 +4966,8 @@
       <c r="D36" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,8 +4980,8 @@
       <c r="D37" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>3</v>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5041,8 +4994,8 @@
       <c r="D38" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>3</v>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5055,8 +5008,8 @@
       <c r="D39" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>3</v>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,8 +5022,8 @@
       <c r="D40" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>3</v>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,8 +5036,8 @@
       <c r="D41" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5097,8 +5050,8 @@
       <c r="D42" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,8 +5064,8 @@
       <c r="D43" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,8 +5078,8 @@
       <c r="D44" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,8 +5092,8 @@
       <c r="D45" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,8 +5106,8 @@
       <c r="D46" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,8 +5120,8 @@
       <c r="D47" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,442 +5134,438 @@
       <c r="D48" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>434</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>3</v>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>440</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>3</v>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>446</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>3</v>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>449</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>452</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>3</v>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>455</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>3</v>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>458</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>470</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>3</v>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>473</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>476</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>3</v>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>479</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>482</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>3</v>
+      <c r="F65" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>485</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>488</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>3</v>
+      <c r="F67" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>491</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>3</v>
+      <c r="F68" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>494</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>3</v>
+      <c r="F69" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>497</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
+      <c r="F70" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>3</v>
+      <c r="F71" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>503</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>506</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>3</v>
+      <c r="F73" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>3</v>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>512</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>3</v>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>515</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+      <c r="F76" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>518</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>3</v>
+      <c r="F77" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>3</v>
+      <c r="F78" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>524</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>3</v>
+      <c r="F79" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,9 +5578,7 @@
       <c r="D80" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -5643,8 +5590,8 @@
       <c r="D81" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+      <c r="F81" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,8 +5604,8 @@
       <c r="D82" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>3</v>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,8 +5618,8 @@
       <c r="D83" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,8 +5632,8 @@
       <c r="D84" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>3</v>
+      <c r="F84" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,8 +5646,8 @@
       <c r="D85" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>3</v>
+      <c r="F85" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,8 +5660,8 @@
       <c r="D86" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>3</v>
+      <c r="F86" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,8 +5674,8 @@
       <c r="D87" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>3</v>
+      <c r="F87" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,8 +5688,8 @@
       <c r="D88" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>3</v>
+      <c r="F88" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,8 +5702,8 @@
       <c r="D89" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,8 +5716,8 @@
       <c r="D90" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>3</v>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,8 +5730,8 @@
       <c r="D91" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,8 +5744,8 @@
       <c r="D92" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>3</v>
+      <c r="F92" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,8 +5758,8 @@
       <c r="D93" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>3</v>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,8 +5772,8 @@
       <c r="D94" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,8 +5786,8 @@
       <c r="D95" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>3</v>
+      <c r="F95" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5862,7 +5809,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F64" activeCellId="1" sqref="F1:F63 F64"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5883,9 +5830,7 @@
       <c r="D1" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -5897,8 +5842,8 @@
       <c r="D2" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,8 +5856,8 @@
       <c r="D3" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,8 +5870,8 @@
       <c r="D4" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,8 +5884,8 @@
       <c r="D5" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5953,8 +5898,8 @@
       <c r="D6" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,8 +5912,8 @@
       <c r="D7" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,8 +5926,8 @@
       <c r="D8" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,8 +5940,8 @@
       <c r="D9" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,8 +5954,8 @@
       <c r="D10" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,8 +5968,8 @@
       <c r="D11" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,8 +5982,8 @@
       <c r="D12" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,8 +5996,8 @@
       <c r="D13" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,8 +6010,8 @@
       <c r="D14" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6079,8 +6024,8 @@
       <c r="D15" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,8 +6038,8 @@
       <c r="D16" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,9 +6052,7 @@
       <c r="D17" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -6121,8 +6064,8 @@
       <c r="D18" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,8 +6078,8 @@
       <c r="D19" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>3</v>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6149,8 +6092,8 @@
       <c r="D20" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,8 +6106,8 @@
       <c r="D21" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6177,8 +6120,8 @@
       <c r="D22" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,8 +6134,8 @@
       <c r="D23" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,8 +6148,8 @@
       <c r="D24" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,8 +6162,8 @@
       <c r="D25" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>3</v>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,8 +6176,8 @@
       <c r="D26" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6247,8 +6190,8 @@
       <c r="D27" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,8 +6204,8 @@
       <c r="D28" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6275,8 +6218,8 @@
       <c r="D29" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,8 +6232,8 @@
       <c r="D30" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>3</v>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6303,8 +6246,8 @@
       <c r="D31" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>3</v>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,8 +6260,8 @@
       <c r="D32" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,9 +6274,7 @@
       <c r="D33" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -6345,8 +6286,8 @@
       <c r="D34" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,8 +6300,8 @@
       <c r="D35" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,8 +6314,8 @@
       <c r="D36" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,8 +6328,8 @@
       <c r="D37" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>3</v>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,8 +6342,8 @@
       <c r="D38" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>3</v>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,8 +6356,8 @@
       <c r="D39" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>3</v>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,8 +6370,8 @@
       <c r="D40" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>3</v>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6443,8 +6384,8 @@
       <c r="D41" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,8 +6398,8 @@
       <c r="D42" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,8 +6412,8 @@
       <c r="D43" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,8 +6426,8 @@
       <c r="D44" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,8 +6440,8 @@
       <c r="D45" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,8 +6454,8 @@
       <c r="D46" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,8 +6468,8 @@
       <c r="D47" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,8 +6482,8 @@
       <c r="D48" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,9 +6496,7 @@
       <c r="D49" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
@@ -6569,8 +6508,8 @@
       <c r="D50" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>3</v>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,8 +6522,8 @@
       <c r="D51" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>3</v>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,8 +6536,8 @@
       <c r="D52" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,8 +6550,8 @@
       <c r="D53" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>3</v>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6625,8 +6564,8 @@
       <c r="D54" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,8 +6578,8 @@
       <c r="D55" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>3</v>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,8 +6592,8 @@
       <c r="D56" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>3</v>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,8 +6606,8 @@
       <c r="D57" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6681,8 +6620,8 @@
       <c r="D58" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,8 +6634,8 @@
       <c r="D59" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,8 +6648,8 @@
       <c r="D60" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,8 +6662,8 @@
       <c r="D61" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>3</v>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6737,8 +6676,8 @@
       <c r="D62" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,8 +6690,8 @@
       <c r="D63" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>3</v>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,8 +6704,8 @@
       <c r="D64" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>3</v>
+      <c r="F64" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6788,7 +6727,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F1:F63"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6799,227 +6738,225 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>765</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>768</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>771</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>774</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>777</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>780</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>783</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>786</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>789</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>792</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>795</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>798</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>801</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>804</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>807</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>810</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7032,8 +6969,8 @@
       <c r="D17" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,8 +6983,8 @@
       <c r="D18" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,8 +6997,8 @@
       <c r="D19" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>3</v>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,8 +7011,8 @@
       <c r="D20" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,8 +7025,8 @@
       <c r="D21" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,8 +7039,8 @@
       <c r="D22" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,8 +7053,8 @@
       <c r="D23" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,8 +7067,8 @@
       <c r="D24" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7144,8 +7081,8 @@
       <c r="D25" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>3</v>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,8 +7095,8 @@
       <c r="D26" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,8 +7109,8 @@
       <c r="D27" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,8 +7123,8 @@
       <c r="D28" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,8 +7137,8 @@
       <c r="D29" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,8 +7151,8 @@
       <c r="D30" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>3</v>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7228,8 +7165,8 @@
       <c r="D31" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>3</v>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,8 +7179,8 @@
       <c r="D32" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,8 +7193,8 @@
       <c r="D33" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,8 +7207,8 @@
       <c r="D34" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7284,8 +7221,8 @@
       <c r="D35" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7298,8 +7235,8 @@
       <c r="D36" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,8 +7249,8 @@
       <c r="D37" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>3</v>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,8 +7263,8 @@
       <c r="D38" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>3</v>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7340,8 +7277,8 @@
       <c r="D39" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>3</v>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7354,8 +7291,8 @@
       <c r="D40" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>3</v>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,8 +7305,8 @@
       <c r="D41" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,8 +7319,8 @@
       <c r="D42" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7396,8 +7333,8 @@
       <c r="D43" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,8 +7347,8 @@
       <c r="D44" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,8 +7361,8 @@
       <c r="D45" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,8 +7375,8 @@
       <c r="D46" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7452,8 +7389,8 @@
       <c r="D47" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7466,8 +7403,8 @@
       <c r="D48" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,8 +7417,8 @@
       <c r="D49" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7494,8 +7431,8 @@
       <c r="D50" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>3</v>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,8 +7445,8 @@
       <c r="D51" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>3</v>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7522,8 +7459,8 @@
       <c r="D52" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7536,8 +7473,8 @@
       <c r="D53" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>3</v>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7550,8 +7487,8 @@
       <c r="D54" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7564,8 +7501,8 @@
       <c r="D55" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>3</v>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7578,8 +7515,8 @@
       <c r="D56" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>3</v>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,8 +7529,8 @@
       <c r="D57" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7606,8 +7543,8 @@
       <c r="D58" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7620,8 +7557,8 @@
       <c r="D59" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,8 +7571,8 @@
       <c r="D60" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7648,8 +7585,8 @@
       <c r="D61" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>3</v>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7662,8 +7599,8 @@
       <c r="D62" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7676,8 +7613,8 @@
       <c r="D63" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>3</v>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
